--- a/fuentes/contenidos/grado09/guion02/SolicitudVideos_CN_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/SolicitudVideos_CN_09_02_CO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos E\Aula Planeta\Edición\Magda Gaviria\CN_09_02_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-60" windowWidth="20730" windowHeight="9765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Área</t>
   </si>
@@ -67,6 +72,12 @@
   </si>
   <si>
     <t>Media principal</t>
+  </si>
+  <si>
+    <t>La manipulación genética y la sociedad</t>
+  </si>
+  <si>
+    <t>AN001190</t>
   </si>
 </sst>
 </file>
@@ -430,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,7 +456,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +512,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
@@ -513,15 +524,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
@@ -753,7 +780,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -763,7 +790,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -773,7 +800,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -783,7 +810,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -793,7 +820,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
